--- a/hotelBookings.xlsx
+++ b/hotelBookings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/433534_student_fontys_nl/Documents/Documenten/Data_Science/Data Science 5/DS5Week2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_44A3EA15813FC2DE5229DFD9C8C0E81BC779ED59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C8B54C4-E192-42C9-8058-16820E89C70A}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_44A3EA15813FC2DE5229DFD9C8C0E81BC779ED59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF595CF-DB97-4B10-918A-76EB7DB33D8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:AF1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H1001" sqref="A1001:XFD1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
